--- a/app/data/result.xlsx
+++ b/app/data/result.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -421,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>test</v>
+        <v>M. RAHUL NAVNEETH - 1</v>
       </c>
       <c r="C2" t="str">
-        <v>22AM008</v>
+        <v>22AM028</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -435,32 +435,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>M. RAHUL NAVNEETH - 1</v>
+        <v>M. RAHUL NAVNEETH - 2</v>
       </c>
       <c r="C3" t="str">
-        <v>22AM028</v>
+        <v>22AM029</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>M. RAHUL NAVNEETH - 2</v>
-      </c>
-      <c r="C4" t="str">
-        <v>22AM029</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>